--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd9</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd9</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8386623333333333</v>
+        <v>0.8794496666666666</v>
       </c>
       <c r="N2">
-        <v>2.515987</v>
+        <v>2.638349</v>
       </c>
       <c r="O2">
-        <v>0.3543770938252007</v>
+        <v>0.3488427963707166</v>
       </c>
       <c r="P2">
-        <v>0.3543770938252008</v>
+        <v>0.3488427963707166</v>
       </c>
       <c r="Q2">
-        <v>0.1914995980851111</v>
+        <v>0.115646751717</v>
       </c>
       <c r="R2">
-        <v>1.723496382766</v>
+        <v>1.040820765453</v>
       </c>
       <c r="S2">
-        <v>0.3203853366758586</v>
+        <v>0.1274808007668801</v>
       </c>
       <c r="T2">
-        <v>0.3203853366758586</v>
+        <v>0.1274808007668801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.134398</v>
       </c>
       <c r="O3">
-        <v>0.3006302339027669</v>
+        <v>0.2822103394539786</v>
       </c>
       <c r="P3">
-        <v>0.3006302339027669</v>
+        <v>0.2822103394539786</v>
       </c>
       <c r="Q3">
-        <v>0.1624556721293333</v>
+        <v>0.093557067534</v>
       </c>
       <c r="R3">
-        <v>1.462101049164</v>
+        <v>0.842013607806</v>
       </c>
       <c r="S3">
-        <v>0.2717938613475663</v>
+        <v>0.1031306950654472</v>
       </c>
       <c r="T3">
-        <v>0.2717938613475663</v>
+        <v>0.1031306950654471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H4">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I4">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J4">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.65342</v>
+        <v>0.8404543333333333</v>
       </c>
       <c r="N4">
-        <v>1.96026</v>
+        <v>2.521363</v>
       </c>
       <c r="O4">
-        <v>0.2761028741173098</v>
+        <v>0.3333748945214069</v>
       </c>
       <c r="P4">
-        <v>0.2761028741173098</v>
+        <v>0.3333748945214068</v>
       </c>
       <c r="Q4">
-        <v>0.1492014871866667</v>
+        <v>0.110518904379</v>
       </c>
       <c r="R4">
-        <v>1.34281338468</v>
+        <v>0.994670139411</v>
       </c>
       <c r="S4">
-        <v>0.2496191594281762</v>
+        <v>0.1218282244934174</v>
       </c>
       <c r="T4">
-        <v>0.2496191594281761</v>
+        <v>0.1218282244934173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H5">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I5">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J5">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1630333333333333</v>
+        <v>0.08967866666666667</v>
       </c>
       <c r="N5">
-        <v>0.4891</v>
+        <v>0.269036</v>
       </c>
       <c r="O5">
-        <v>0.06888979815472246</v>
+        <v>0.035571969653898</v>
       </c>
       <c r="P5">
-        <v>0.06888979815472246</v>
+        <v>0.03557196965389799</v>
       </c>
       <c r="Q5">
-        <v>0.03722692264444444</v>
+        <v>0.011792654988</v>
       </c>
       <c r="R5">
-        <v>0.3350423038</v>
+        <v>0.106133894892</v>
       </c>
       <c r="S5">
-        <v>0.06228190692883646</v>
+        <v>0.01299938890386312</v>
       </c>
       <c r="T5">
-        <v>0.06228190692883646</v>
+        <v>0.01299938890386312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H6">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I6">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J6">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8386623333333333</v>
+        <v>0.8794496666666666</v>
       </c>
       <c r="N6">
-        <v>2.515987</v>
+        <v>2.638349</v>
       </c>
       <c r="O6">
-        <v>0.3543770938252007</v>
+        <v>0.3488427963707166</v>
       </c>
       <c r="P6">
-        <v>0.3543770938252008</v>
+        <v>0.3488427963707166</v>
       </c>
       <c r="Q6">
-        <v>0.02031743368733333</v>
+        <v>0.2008129505868889</v>
       </c>
       <c r="R6">
-        <v>0.182856903186</v>
+        <v>1.807316555282</v>
       </c>
       <c r="S6">
-        <v>0.03399175714934213</v>
+        <v>0.2213619956038365</v>
       </c>
       <c r="T6">
-        <v>0.03399175714934213</v>
+        <v>0.2213619956038365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H7">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I7">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J7">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>2.134398</v>
       </c>
       <c r="O7">
-        <v>0.3006302339027669</v>
+        <v>0.2822103394539786</v>
       </c>
       <c r="P7">
-        <v>0.3006302339027669</v>
+        <v>0.2822103394539786</v>
       </c>
       <c r="Q7">
-        <v>0.017235975316</v>
+        <v>0.1624556721293333</v>
       </c>
       <c r="R7">
-        <v>0.155123777844</v>
+        <v>1.462101049164</v>
       </c>
       <c r="S7">
-        <v>0.02883637255520063</v>
+        <v>0.1790796443885314</v>
       </c>
       <c r="T7">
-        <v>0.02883637255520062</v>
+        <v>0.1790796443885314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H8">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I8">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J8">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.65342</v>
+        <v>0.8404543333333333</v>
       </c>
       <c r="N8">
-        <v>1.96026</v>
+        <v>2.521363</v>
       </c>
       <c r="O8">
-        <v>0.2761028741173098</v>
+        <v>0.3333748945214069</v>
       </c>
       <c r="P8">
-        <v>0.2761028741173098</v>
+        <v>0.3333748945214068</v>
       </c>
       <c r="Q8">
-        <v>0.01582975292</v>
+        <v>0.1919087821704444</v>
       </c>
       <c r="R8">
-        <v>0.14246777628</v>
+        <v>1.727179039534</v>
       </c>
       <c r="S8">
-        <v>0.02648371468913369</v>
+        <v>0.2115466700279895</v>
       </c>
       <c r="T8">
-        <v>0.02648371468913369</v>
+        <v>0.2115466700279895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H9">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I9">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J9">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1630333333333333</v>
+        <v>0.08967866666666667</v>
       </c>
       <c r="N9">
-        <v>0.4891</v>
+        <v>0.269036</v>
       </c>
       <c r="O9">
-        <v>0.06888979815472246</v>
+        <v>0.035571969653898</v>
       </c>
       <c r="P9">
-        <v>0.06888979815472246</v>
+        <v>0.03557196965389799</v>
       </c>
       <c r="Q9">
-        <v>0.003949645533333333</v>
+        <v>0.02047716696088889</v>
       </c>
       <c r="R9">
-        <v>0.0355468098</v>
+        <v>0.184294502648</v>
       </c>
       <c r="S9">
-        <v>0.006607891225886</v>
+        <v>0.02257258075003488</v>
       </c>
       <c r="T9">
-        <v>0.006607891225885999</v>
+        <v>0.02257258075003487</v>
       </c>
     </row>
   </sheetData>
